--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,9 +49,6 @@
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -67,67 +64,82 @@
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
@@ -136,25 +148,19 @@
     <t>well</t>
   </si>
   <si>
-    <t>please</t>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -512,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -581,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7534246575342466</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -599,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.925</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -623,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,16 +658,16 @@
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -673,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -681,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.492063492063492</v>
+        <v>0.4497354497354497</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -699,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -723,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -731,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4901960784313725</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -749,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>26</v>
+        <v>292</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8983050847457628</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L6">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="M6">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -773,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -781,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4341085271317829</v>
+        <v>0.2885906040268457</v>
       </c>
       <c r="C7">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -799,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>292</v>
+        <v>106</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
         <v>0.875</v>
@@ -831,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2818791946308725</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -849,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8668407310704961</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L8">
-        <v>332</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>332</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -873,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -881,37 +887,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1633466135458167</v>
+        <v>0.09115281501340483</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E9">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>210</v>
+        <v>339</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8448275862068966</v>
+        <v>0.8359375</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="M9">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -923,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -931,37 +937,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08333333333333333</v>
+        <v>0.01614465611882467</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E10">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="F10">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>341</v>
+        <v>3047</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8207547169811321</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -973,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -981,37 +987,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01327290385237941</v>
+        <v>0.01274787535410765</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E11">
-        <v>0.31</v>
+        <v>0.48</v>
       </c>
       <c r="F11">
-        <v>0.6899999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>3048</v>
+        <v>2091</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8028169014084507</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1023,21 +1029,45 @@
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.009232728430436167</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>89</v>
+      </c>
+      <c r="E12">
+        <v>0.67</v>
+      </c>
+      <c r="F12">
+        <v>0.33</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3112</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>311</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>311</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1049,21 +1079,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.7734375</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L13">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1075,21 +1105,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L14">
         <v>29</v>
       </c>
-      <c r="K14">
-        <v>0.7659574468085106</v>
-      </c>
-      <c r="L14">
-        <v>36</v>
-      </c>
       <c r="M14">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1101,21 +1131,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7625</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L15">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="M15">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1127,21 +1157,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7575757575757576</v>
+        <v>0.78</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1153,21 +1183,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.7222222222222222</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1179,21 +1209,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.7209302325581395</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1205,47 +1235,47 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>0.7605633802816901</v>
+      </c>
+      <c r="L19">
+        <v>108</v>
+      </c>
+      <c r="M19">
+        <v>108</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>34</v>
-      </c>
-      <c r="K19">
-        <v>0.6984126984126984</v>
-      </c>
-      <c r="L19">
-        <v>44</v>
-      </c>
-      <c r="M19">
-        <v>44</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6875</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1257,21 +1287,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1283,21 +1313,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6470588235294118</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L22">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M22">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1309,21 +1339,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.6271186440677966</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L23">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1335,21 +1365,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>110</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.6063829787234043</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L24">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1361,21 +1391,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.602510460251046</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L25">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M25">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1387,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.5730337078651685</v>
+        <v>0.6135593220338983</v>
       </c>
       <c r="L26">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="M26">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1413,21 +1443,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.5692307692307692</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1439,12 +1469,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
         <v>0.5428571428571428</v>
@@ -1470,16 +1500,16 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.4102564102564102</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1491,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.3835616438356164</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1517,33 +1547,111 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.0141287284144427</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="N31">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>3140</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32">
+        <v>0.02780867630700778</v>
+      </c>
+      <c r="L32">
+        <v>25</v>
+      </c>
+      <c r="M32">
+        <v>27</v>
+      </c>
+      <c r="N32">
+        <v>0.93</v>
+      </c>
+      <c r="O32">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33">
+        <v>0.01891551071878941</v>
+      </c>
+      <c r="L33">
+        <v>60</v>
+      </c>
+      <c r="M33">
+        <v>89</v>
+      </c>
+      <c r="N33">
+        <v>0.67</v>
+      </c>
+      <c r="O33">
+        <v>0.33</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34">
+        <v>0.01181474480151229</v>
+      </c>
+      <c r="L34">
+        <v>25</v>
+      </c>
+      <c r="M34">
+        <v>52</v>
+      </c>
+      <c r="N34">
+        <v>0.48</v>
+      </c>
+      <c r="O34">
+        <v>0.52</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>2091</v>
       </c>
     </row>
   </sheetData>
